--- a/output_vacances_jours_feries.xlsx
+++ b/output_vacances_jours_feries.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,33 +471,33 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
         <v>22</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43466</v>
+        <v>43101</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B3" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>43577</v>
+        <v>43192</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -511,13 +511,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B4" t="n">
         <v>39</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>43586</v>
+        <v>43221</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -531,33 +531,33 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B5" t="n">
         <v>40</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>43593</v>
+        <v>43228</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>43615</v>
+        <v>43241</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -574,10 +574,10 @@
         <v>2018</v>
       </c>
       <c r="B7" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>43626</v>
+        <v>43327</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -591,19 +591,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>43692</v>
+        <v>43392</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>0.1</v>
@@ -611,353 +611,353 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>43756</v>
+        <v>43395</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>43759</v>
+        <v>43402</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>15</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>43766</v>
+        <v>43455</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>43780</v>
+        <v>43458</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>43819</v>
+        <v>43466</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B14" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>43822</v>
+        <v>43504</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B15" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>43831</v>
+        <v>43507</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B16" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>43868</v>
+        <v>43514</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>43871</v>
+        <v>43521</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B18" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>43878</v>
+        <v>43528</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B19" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>43885</v>
+        <v>43560</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B20" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>43892</v>
+        <v>43563</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B21" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>43924</v>
+        <v>43570</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F21" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B22" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>43927</v>
+        <v>43577</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B23" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>43934</v>
+        <v>43584</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>43941</v>
+        <v>43593</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B25" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>43952</v>
+        <v>43613</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B26" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>43959</v>
+        <v>43626</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -971,73 +971,73 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B27" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>43972</v>
+        <v>43651</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B28" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>43983</v>
+        <v>43654</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>44015</v>
+        <v>43661</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F29" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B30" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>44018</v>
+        <v>43668</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B31" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>44025</v>
+        <v>43675</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="32">
@@ -1074,10 +1074,10 @@
         <v>2019</v>
       </c>
       <c r="B32" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>44032</v>
+        <v>43682</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1094,30 +1094,30 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>44039</v>
+        <v>43689</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>44046</v>
+        <v>43696</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1131,99 +1131,99 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>44053</v>
+        <v>43703</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B36" t="n">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>43756</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
         <v>3</v>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>44060</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10</v>
-      </c>
       <c r="F36" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>44067</v>
+        <v>43759</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B38" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>44074</v>
+        <v>43766</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F38" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B39" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>44120</v>
+        <v>43780</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0.1</v>
@@ -1231,213 +1231,213 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>44123</v>
+        <v>43819</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.5</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>44130</v>
+        <v>43822</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B42" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>44146</v>
+        <v>43831</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>44183</v>
+        <v>43868</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>44186</v>
+        <v>43871</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B45" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>44193</v>
+        <v>43878</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F45" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>44232</v>
+        <v>43885</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B47" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>44235</v>
+        <v>43924</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B48" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>44242</v>
+        <v>43927</v>
       </c>
       <c r="D48" t="n">
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B49" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>44249</v>
+        <v>43934</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B50" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>44256</v>
+        <v>43941</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1451,113 +1451,113 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B51" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>44291</v>
+        <v>43948</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B52" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>44298</v>
+        <v>43959</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B53" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>44305</v>
+        <v>43970</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2333333333333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B54" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>44328</v>
+        <v>43983</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B55" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>44340</v>
+        <v>44015</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B56" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>44382</v>
+        <v>44018</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -1571,13 +1571,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B57" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>44389</v>
+        <v>44025</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B58" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>44396</v>
+        <v>44032</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B59" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>44403</v>
+        <v>44039</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -1634,10 +1634,10 @@
         <v>2020</v>
       </c>
       <c r="B60" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>44410</v>
+        <v>44046</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>44417</v>
+        <v>44053</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>44424</v>
+        <v>44060</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1691,13 +1691,13 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>44431</v>
+        <v>44067</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1711,93 +1711,93 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>44438</v>
+        <v>44074</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B65" t="n">
         <v>11</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>44491</v>
+        <v>44120</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B66" t="n">
         <v>12</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>44494</v>
+        <v>44123</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B67" t="n">
         <v>13</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>44501</v>
+        <v>44130</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B68" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>44511</v>
+        <v>44146</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1811,13 +1811,13 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>44547</v>
+        <v>44183</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1831,159 +1831,159 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B70" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>44550</v>
+        <v>44186</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>15</v>
       </c>
       <c r="F70" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B71" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>44557</v>
+        <v>44193</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F71" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B72" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>44197</v>
+        <v>44232</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B73" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>44596</v>
+        <v>44235</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F73" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B74" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>44599</v>
+        <v>44242</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B75" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>44606</v>
+        <v>44249</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B76" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>44613</v>
+        <v>44256</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>44620</v>
+        <v>44291</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
         <v>0.1666666666666667</v>
@@ -1991,182 +1991,182 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B78" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>44659</v>
+        <v>44298</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F78" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B79" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>44662</v>
+        <v>44305</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B80" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>44669</v>
+        <v>44328</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F80" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B81" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>44676</v>
+        <v>44340</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B82" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>44683</v>
+        <v>44382</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B83" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>44706</v>
+        <v>44389</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B84" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>44718</v>
+        <v>44396</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B85" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>44748</v>
+        <v>44403</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B86" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>44753</v>
+        <v>44410</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F86" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="87">
@@ -2174,19 +2174,19 @@
         <v>2021</v>
       </c>
       <c r="B87" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>44760</v>
+        <v>44417</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="88">
@@ -2194,19 +2194,19 @@
         <v>2021</v>
       </c>
       <c r="B88" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>44767</v>
+        <v>44424</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="89">
@@ -2214,70 +2214,70 @@
         <v>2021</v>
       </c>
       <c r="B89" t="n">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>44774</v>
+        <v>44431</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>44781</v>
+        <v>44438</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F90" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B91" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>44788</v>
+        <v>44491</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B92" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>44795</v>
+        <v>44494</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -2291,39 +2291,39 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B93" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>44802</v>
+        <v>44501</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B94" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>44855</v>
+        <v>44511</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>0.1</v>
@@ -2331,402 +2331,402 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B95" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>44858</v>
+        <v>44547</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B96" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>44865</v>
+        <v>44550</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>15</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B97" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>44876</v>
+        <v>44557</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B98" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>44911</v>
+        <v>44197</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B99" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>44914</v>
+        <v>44596</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.5</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B100" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>44921</v>
+        <v>44599</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B101" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>44928</v>
+        <v>44606</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B102" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>44960</v>
+        <v>44613</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F102" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B103" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>44963</v>
+        <v>44620</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B104" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>44970</v>
+        <v>44659</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B105" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>44977</v>
+        <v>44662</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F105" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B106" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>44984</v>
+        <v>44669</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B107" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45026</v>
+        <v>44676</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B108" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45033</v>
+        <v>44706</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B109" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45040</v>
+        <v>44718</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B110" t="n">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45047</v>
+        <v>44748</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B111" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45054</v>
+        <v>44753</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B112" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45063</v>
+        <v>44760</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B113" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>45075</v>
+        <v>44767</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F113" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B114" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>45114</v>
+        <v>44774</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F114" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115">
@@ -2734,19 +2734,19 @@
         <v>2022</v>
       </c>
       <c r="B115" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>45117</v>
+        <v>44781</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="116">
@@ -2754,19 +2754,19 @@
         <v>2022</v>
       </c>
       <c r="B116" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>45124</v>
+        <v>44788</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F116" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="117">
@@ -2774,19 +2774,19 @@
         <v>2022</v>
       </c>
       <c r="B117" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>45131</v>
+        <v>44795</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F117" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="118">
@@ -2794,110 +2794,110 @@
         <v>2022</v>
       </c>
       <c r="B118" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>45138</v>
+        <v>44802</v>
       </c>
       <c r="D118" t="n">
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>45145</v>
+        <v>44855</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B120" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>45152</v>
+        <v>44858</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F120" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B121" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>45159</v>
+        <v>44865</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F121" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B122" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>45166</v>
+        <v>44876</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B123" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>45219</v>
+        <v>44911</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B124" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>45222</v>
+        <v>44914</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -2931,382 +2931,382 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>45229</v>
+        <v>44921</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>15</v>
       </c>
       <c r="F125" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>45282</v>
+        <v>44928</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F126" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>45285</v>
+        <v>44960</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4333333333333333</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B128" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>45292</v>
+        <v>44963</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B129" t="n">
         <v>28</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>45338</v>
+        <v>44970</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F129" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B130" t="n">
         <v>29</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>45341</v>
+        <v>44977</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F130" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B131" t="n">
         <v>30</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>45348</v>
+        <v>44984</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B132" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>45355</v>
+        <v>45026</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B133" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>45383</v>
+        <v>45033</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B134" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>45390</v>
+        <v>45040</v>
       </c>
       <c r="D134" t="n">
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F134" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B135" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>45397</v>
+        <v>45047</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B136" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>45404</v>
+        <v>45054</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B137" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>45411</v>
+        <v>45063</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F137" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B138" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>45420</v>
+        <v>45075</v>
       </c>
       <c r="D138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B139" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>45432</v>
+        <v>45114</v>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B140" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>45478</v>
+        <v>45117</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B141" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>45481</v>
+        <v>45124</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B142" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>45488</v>
+        <v>45131</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F142" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B143" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>45495</v>
+        <v>45138</v>
       </c>
       <c r="D143" t="n">
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F143" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="144">
@@ -3314,270 +3314,270 @@
         <v>2023</v>
       </c>
       <c r="B144" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>45502</v>
+        <v>45145</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>45509</v>
+        <v>45152</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5</v>
+        <v>0.4333333333333333</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B146" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>45516</v>
+        <v>45159</v>
       </c>
       <c r="D146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F146" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B147" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>45523</v>
+        <v>45166</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B148" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>45530</v>
+        <v>45219</v>
       </c>
       <c r="D148" t="n">
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>45583</v>
+        <v>45222</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>45586</v>
+        <v>45229</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E150" t="n">
         <v>15</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B151" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>45593</v>
+        <v>45282</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B152" t="n">
+        <v>21</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" t="n">
         <v>15</v>
       </c>
-      <c r="C152" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D152" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
       <c r="F152" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B153" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>45646</v>
+        <v>45292</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1</v>
+        <v>0.7999999999999999</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B154" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>45649</v>
+        <v>45338</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B155" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>45658</v>
+        <v>45341</v>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B156" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>45709</v>
+        <v>45348</v>
       </c>
       <c r="D156" t="n">
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F156" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B157" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>45712</v>
+        <v>45355</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -3591,53 +3591,53 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B158" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>45719</v>
+        <v>45383</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B159" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>45751</v>
+        <v>45390</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F159" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B160" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>45754</v>
+        <v>45397</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3651,73 +3651,73 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B161" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>45761</v>
+        <v>45404</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B162" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>45768</v>
+        <v>45411</v>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F162" t="n">
-        <v>0.4666666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B163" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>45775</v>
+        <v>45420</v>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B164" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>45785</v>
+        <v>45432</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3731,102 +3731,102 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B165" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>45805</v>
+        <v>45478</v>
       </c>
       <c r="D165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.3</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B166" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>45817</v>
+        <v>45481</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F166" t="n">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B167" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>45842</v>
+        <v>45488</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F167" t="n">
-        <v>0.1</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B168" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>45845</v>
+        <v>45495</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F168" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B169" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>45852</v>
+        <v>45502</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F169" t="n">
-        <v>0.6</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="170">
@@ -3834,19 +3834,19 @@
         <v>2024</v>
       </c>
       <c r="B170" t="n">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>45859</v>
+        <v>45509</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F170" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="171">
@@ -3854,90 +3854,90 @@
         <v>2024</v>
       </c>
       <c r="B171" t="n">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>45866</v>
+        <v>45516</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F171" t="n">
-        <v>0.5</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>45873</v>
+        <v>45523</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F172" t="n">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>45880</v>
+        <v>45530</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B174" t="n">
+        <v>11</v>
+      </c>
+      <c r="C174" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
         <v>3</v>
       </c>
-      <c r="C174" s="2" t="n">
-        <v>45887</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>15</v>
-      </c>
       <c r="F174" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B175" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>45894</v>
+        <v>45586</v>
       </c>
       <c r="D175" t="n">
         <v>0</v>
@@ -3951,339 +3951,339 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B176" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>45947</v>
+        <v>45593</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E176" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B177" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>45950</v>
+        <v>45607</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B178" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>45957</v>
+        <v>45646</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B179" t="n">
+        <v>21</v>
+      </c>
+      <c r="C179" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
         <v>15</v>
       </c>
-      <c r="C179" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="D179" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
       <c r="F179" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B180" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>46010</v>
+        <v>45658</v>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F180" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B181" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>46013</v>
+        <v>45695</v>
       </c>
       <c r="D181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B182" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>46023</v>
+        <v>45698</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F182" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B183" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>46059</v>
+        <v>45705</v>
       </c>
       <c r="D183" t="n">
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F183" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B184" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>46062</v>
+        <v>45712</v>
       </c>
       <c r="D184" t="n">
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F184" t="n">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B185" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C185" s="2" t="n">
-        <v>46069</v>
+        <v>45719</v>
       </c>
       <c r="D185" t="n">
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F185" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B186" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C186" s="2" t="n">
-        <v>46076</v>
+        <v>45751</v>
       </c>
       <c r="D186" t="n">
         <v>0</v>
       </c>
       <c r="E186" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B187" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>46115</v>
+        <v>45754</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F187" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B188" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C188" s="2" t="n">
-        <v>46118</v>
+        <v>45761</v>
       </c>
       <c r="D188" t="n">
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F188" t="n">
-        <v>0.2</v>
+        <v>0.3666666666666666</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B189" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C189" s="2" t="n">
-        <v>46125</v>
+        <v>45768</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
         <v>11</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3666666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B190" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C190" s="2" t="n">
-        <v>46132</v>
+        <v>45775</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E190" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B191" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C191" s="2" t="n">
-        <v>46139</v>
+        <v>45785</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B192" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C192" s="2" t="n">
-        <v>46155</v>
+        <v>45805</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E192" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F192" t="n">
         <v>0.3</v>
@@ -4291,22 +4291,582 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B193" t="n">
+        <v>45</v>
+      </c>
+      <c r="C193" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B194" t="n">
+        <v>48</v>
+      </c>
+      <c r="C194" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="D194" t="n">
+        <v>0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.06666666666666667</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B195" t="n">
+        <v>49</v>
+      </c>
+      <c r="C195" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="D195" t="n">
+        <v>0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>10</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B196" t="n">
+        <v>50</v>
+      </c>
+      <c r="C196" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>10</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B197" t="n">
+        <v>51</v>
+      </c>
+      <c r="C197" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>10</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B198" t="n">
+        <v>52</v>
+      </c>
+      <c r="C198" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="D198" t="n">
+        <v>0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>10</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
         <v>2025</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>10</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+      <c r="C200" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" t="n">
+        <v>10</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B201" t="n">
+        <v>3</v>
+      </c>
+      <c r="C201" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>10</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B202" t="n">
+        <v>4</v>
+      </c>
+      <c r="C202" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>10</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B203" t="n">
+        <v>11</v>
+      </c>
+      <c r="C203" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B204" t="n">
+        <v>12</v>
+      </c>
+      <c r="C204" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>15</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B205" t="n">
+        <v>13</v>
+      </c>
+      <c r="C205" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>15</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B206" t="n">
+        <v>15</v>
+      </c>
+      <c r="C206" s="2" t="n">
+        <v>45972</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B207" t="n">
+        <v>20</v>
+      </c>
+      <c r="C207" s="2" t="n">
+        <v>46010</v>
+      </c>
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B208" t="n">
+        <v>21</v>
+      </c>
+      <c r="C208" s="2" t="n">
+        <v>46013</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>15</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B209" t="n">
+        <v>22</v>
+      </c>
+      <c r="C209" s="2" t="n">
+        <v>46023</v>
+      </c>
+      <c r="D209" t="n">
+        <v>0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>6</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B210" t="n">
+        <v>27</v>
+      </c>
+      <c r="C210" s="2" t="n">
+        <v>46059</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B211" t="n">
+        <v>28</v>
+      </c>
+      <c r="C211" s="2" t="n">
+        <v>46062</v>
+      </c>
+      <c r="D211" t="n">
+        <v>0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>6</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B212" t="n">
+        <v>29</v>
+      </c>
+      <c r="C212" s="2" t="n">
+        <v>46069</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>11</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.3666666666666666</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B213" t="n">
+        <v>30</v>
+      </c>
+      <c r="C213" s="2" t="n">
+        <v>46076</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>10</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B214" t="n">
+        <v>31</v>
+      </c>
+      <c r="C214" s="2" t="n">
+        <v>46083</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>5</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B215" t="n">
+        <v>35</v>
+      </c>
+      <c r="C215" s="2" t="n">
+        <v>46115</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.03333333333333333</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B216" t="n">
+        <v>36</v>
+      </c>
+      <c r="C216" s="2" t="n">
+        <v>46118</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>5</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B217" t="n">
+        <v>37</v>
+      </c>
+      <c r="C217" s="2" t="n">
+        <v>46125</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>6</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B218" t="n">
+        <v>38</v>
+      </c>
+      <c r="C218" s="2" t="n">
+        <v>46132</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>5</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B219" t="n">
+        <v>39</v>
+      </c>
+      <c r="C219" s="2" t="n">
+        <v>46139</v>
+      </c>
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>5</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B220" t="n">
+        <v>41</v>
+      </c>
+      <c r="C220" s="2" t="n">
+        <v>46155</v>
+      </c>
+      <c r="D220" t="n">
+        <v>0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>9</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B221" t="n">
         <v>48</v>
       </c>
-      <c r="C193" s="2" t="n">
+      <c r="C221" s="2" t="n">
         <v>46206</v>
       </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>2</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0.06666666666666667</v>
+      <c r="D221" t="n">
+        <v>0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.03333333333333333</v>
       </c>
     </row>
   </sheetData>
